--- a/data/BppTrend/Error_Record_Files/BOE Valuation Factors 2020.xlsx
+++ b/data/BppTrend/Error_Record_Files/BOE Valuation Factors 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="847" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc212252264" localSheetId="2">'Semiconductor Val Factors'!#REF!</definedName>
-    <definedName name="_Toc212252265" localSheetId="3">'Biopharmaceutical Val Factors'!$A$23</definedName>
+    <definedName name="_Toc212252265" localSheetId="3">'Biopharmaceutical Val Factors'!$A$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -283,9 +283,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -308,9 +305,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -337,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -734,9 +731,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -758,101 +755,90 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22">
-        <v>2019</v>
+      <c r="A2" s="21">
+        <v>2018</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="22">
-        <v>2018</v>
+      <c r="A3" s="21">
+        <v>2017</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="22">
-        <v>2017</v>
+      <c r="A4" s="21">
+        <v>2016</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22">
-        <v>2016</v>
+      <c r="A5" s="21">
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22">
-        <v>2015</v>
+      <c r="A6" s="21">
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22">
-        <v>2014</v>
+      <c r="A7" s="21">
+        <v>2013</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22">
-        <v>2013</v>
+      <c r="A8" s="21">
+        <v>2012</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22">
-        <v>2012</v>
+      <c r="A9" s="21">
+        <v>2011</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="22">
-        <v>2011</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
         <v>2</v>
       </c>
     </row>
@@ -863,7 +849,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +857,7 @@
   <cols>
     <col min="1" max="1" width="12.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" style="27" customWidth="1"/>
     <col min="4" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
@@ -882,214 +868,205 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" ht="14">
-      <c r="A2" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="24">
-        <v>78</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="1:4" ht="14">
+      <c r="A2" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="23">
+        <v>61</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="14">
-      <c r="A3" s="23">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="24">
-        <v>61</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="22">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="23">
+        <v>46</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="14">
-      <c r="A4" s="23">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="24">
-        <v>46</v>
-      </c>
-      <c r="C4" s="30">
-        <v>77</v>
+      <c r="A4" s="22">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="23">
+        <v>34</v>
+      </c>
+      <c r="C4" s="28">
+        <v>67</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="14">
-      <c r="A5" s="23">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="22">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="23">
+        <v>25</v>
+      </c>
+      <c r="C5" s="28">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="14">
+      <c r="A6" s="22">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="23">
+        <v>18</v>
+      </c>
+      <c r="C6" s="28">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="14">
+      <c r="A7" s="22">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="23">
+        <v>12</v>
+      </c>
+      <c r="C7" s="28">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="14">
+      <c r="A8" s="22">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="23">
+        <v>8</v>
+      </c>
+      <c r="C8" s="28">
         <v>34</v>
       </c>
-      <c r="C5" s="30">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="14">
-      <c r="A6" s="23">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="24">
-        <v>25</v>
-      </c>
-      <c r="C6" s="30">
-        <v>59</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="14">
-      <c r="A7" s="23">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="24">
-        <v>18</v>
-      </c>
-      <c r="C7" s="30">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="14">
-      <c r="A8" s="23">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="14">
+      <c r="A9" s="22">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="29">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="14">
+      <c r="A10" s="22">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="29">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="14">
+      <c r="A11" s="22">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="14">
+      <c r="A12" s="22">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="29">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="14">
+      <c r="A13" s="22">
+        <v>2007</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="29">
         <v>12</v>
       </c>
-      <c r="C8" s="30">
-        <v>41</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="14">
-      <c r="A9" s="23">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="24">
-        <v>8</v>
-      </c>
-      <c r="C9" s="30">
-        <v>34</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="14">
-      <c r="A10" s="23">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="31">
-        <v>27</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="14">
-      <c r="A11" s="23">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="31">
-        <v>22</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" ht="14">
-      <c r="A12" s="23">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="31">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="14">
-      <c r="A13" s="23">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="31">
-        <v>13</v>
-      </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="14">
-      <c r="A14" s="23">
-        <v>2007</v>
+      <c r="A14" s="22">
+        <v>2006</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>12</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="14">
-      <c r="A15" s="23">
-        <v>2006</v>
+      <c r="A15" s="22">
+        <v>2005</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>12</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="14">
-      <c r="A16" s="23">
-        <v>2005</v>
+      <c r="A16" s="22">
+        <v>2004</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>12</v>
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="14">
-      <c r="A17" s="23">
-        <v>2004</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="22">
+        <v>2003</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>12</v>
       </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="23">
-        <v>2003</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="14">
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="14">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:3" ht="14">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" ht="14">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="14">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="14">
+    <row r="31" spans="1:3" ht="14">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="14">
+    <row r="32" spans="1:3" ht="14">
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" ht="14">
@@ -1117,6 +1094,7 @@
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" ht="14">
+      <c r="A41" s="6"/>
       <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:2" ht="14">
@@ -1135,9 +1113,9 @@
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:2" ht="14">
+    <row r="46" spans="1:2">
       <c r="A46" s="6"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6"/>
@@ -1147,12 +1125,8 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:1">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1164,9 +1138,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
@@ -1179,7 +1153,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" ht="13">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1191,312 +1165,303 @@
       <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="25">
+      <c r="A2" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="24">
+        <v>71</v>
+      </c>
+      <c r="C2" s="24">
         <v>85</v>
       </c>
-      <c r="C2" s="25">
-        <v>92</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25">
-        <v>92</v>
+      <c r="E2" s="24">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="22">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="25">
+        <v>57</v>
+      </c>
+      <c r="C3" s="25">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="25">
+        <v>43</v>
+      </c>
+      <c r="C4" s="25">
         <v>71</v>
       </c>
-      <c r="C3" s="26">
-        <v>85</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="26">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="23">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="27">
-        <v>57</v>
-      </c>
-      <c r="C4" s="27">
-        <v>80</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25">
         <v>71</v>
       </c>
-      <c r="E4" s="27">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="27">
-        <v>43</v>
-      </c>
-      <c r="C5" s="27">
-        <v>71</v>
-      </c>
-      <c r="D5" s="27">
-        <v>60</v>
-      </c>
-      <c r="E5" s="27">
-        <v>71</v>
+      <c r="A5" s="22">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="25">
+        <v>30</v>
+      </c>
+      <c r="C5" s="25">
+        <v>61</v>
+      </c>
+      <c r="D5" s="25">
+        <v>48</v>
+      </c>
+      <c r="E5" s="25">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="27">
-        <v>30</v>
-      </c>
-      <c r="C6" s="27">
-        <v>61</v>
-      </c>
-      <c r="D6" s="27">
-        <v>48</v>
-      </c>
-      <c r="E6" s="27">
-        <v>61</v>
+      <c r="A6" s="22">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="25">
+        <v>19</v>
+      </c>
+      <c r="C6" s="25">
+        <v>53</v>
+      </c>
+      <c r="D6" s="25">
+        <v>38</v>
+      </c>
+      <c r="E6" s="25">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="27">
-        <v>19</v>
-      </c>
-      <c r="C7" s="27">
-        <v>53</v>
-      </c>
-      <c r="D7" s="27">
-        <v>38</v>
-      </c>
-      <c r="E7" s="27">
-        <v>53</v>
+      <c r="A7" s="22">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="25">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25">
+        <v>44</v>
+      </c>
+      <c r="D7" s="25">
+        <v>28</v>
+      </c>
+      <c r="E7" s="25">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="22">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="25">
+        <v>11</v>
+      </c>
+      <c r="C8" s="25">
+        <v>36</v>
+      </c>
+      <c r="D8" s="25">
+        <v>21</v>
+      </c>
+      <c r="E8" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="22">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="25">
+        <v>11</v>
+      </c>
+      <c r="C9" s="25">
+        <v>29</v>
+      </c>
+      <c r="D9" s="25">
+        <v>15</v>
+      </c>
+      <c r="E9" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="22">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="25">
+        <v>11</v>
+      </c>
+      <c r="C10" s="25">
+        <v>23</v>
+      </c>
+      <c r="D10" s="25">
         <v>12</v>
       </c>
-      <c r="C8" s="27">
-        <v>44</v>
-      </c>
-      <c r="D8" s="27">
-        <v>28</v>
-      </c>
-      <c r="E8" s="27">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="23">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="E10" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="22">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="25">
         <v>11</v>
       </c>
-      <c r="C9" s="27">
-        <v>36</v>
-      </c>
-      <c r="D9" s="27">
-        <v>21</v>
-      </c>
-      <c r="E9" s="27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="27">
+      <c r="C11" s="25">
+        <v>17</v>
+      </c>
+      <c r="D11" s="25">
+        <v>12</v>
+      </c>
+      <c r="E11" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="25">
         <v>11</v>
       </c>
-      <c r="C10" s="27">
-        <v>29</v>
-      </c>
-      <c r="D10" s="27">
-        <v>15</v>
-      </c>
-      <c r="E10" s="27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="C12" s="25">
+        <v>13</v>
+      </c>
+      <c r="D12" s="25">
+        <v>12</v>
+      </c>
+      <c r="E12" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22">
+        <v>2007</v>
+      </c>
+      <c r="B13" s="25">
         <v>11</v>
       </c>
-      <c r="C11" s="27">
-        <v>23</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="C13" s="25">
         <v>12</v>
       </c>
-      <c r="E11" s="27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="27">
-        <v>11</v>
-      </c>
-      <c r="C12" s="27">
-        <v>17</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="D13" s="25">
         <v>12</v>
       </c>
-      <c r="E12" s="27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="27">
-        <v>11</v>
-      </c>
-      <c r="C13" s="27">
-        <v>13</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="E13" s="25">
         <v>12</v>
       </c>
-      <c r="E13" s="27">
-        <v>13</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23">
-        <v>2007</v>
-      </c>
-      <c r="B14" s="27">
-        <v>11</v>
-      </c>
-      <c r="C14" s="27">
-        <v>12</v>
-      </c>
-      <c r="D14" s="27">
-        <v>12</v>
-      </c>
-      <c r="E14" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="15">
+    <row r="24" spans="1:9" ht="14">
       <c r="A24" s="8"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="14">
-      <c r="A25" s="8"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" ht="14">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="14">
+      <c r="A25" s="9"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="14">
       <c r="A26" s="9"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" ht="14">
-      <c r="A27" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="14">
+      <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="14">
-      <c r="A28" s="8"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="14">
+      <c r="A28" s="18"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="14">
-      <c r="A29" s="19"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="19"/>
+    <row r="29" spans="1:9" ht="14">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="14">
-      <c r="A30" s="19"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="14">
-      <c r="A31" s="19"/>
+    <row r="30" spans="1:9" ht="14">
+      <c r="A30" s="18"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="14">
+      <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="14">
+    <row r="32" spans="1:9" ht="14">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14">
       <c r="A33" s="8"/>
@@ -1580,14 +1545,14 @@
     </row>
     <row r="43" spans="1:12" ht="14">
       <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="14">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1601,6 +1566,9 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="6"/>
@@ -1608,10 +1576,6 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="6"/>
@@ -1678,20 +1642,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1702,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1721,90 +1678,82 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22">
-        <v>2019</v>
+      <c r="A2" s="21">
+        <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22">
-        <v>2018</v>
+      <c r="A3" s="21">
+        <v>2017</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22">
-        <v>2017</v>
+      <c r="A4" s="21">
+        <v>2016</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22">
-        <v>2016</v>
+      <c r="A5" s="21">
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22">
-        <v>2015</v>
+      <c r="A6" s="21">
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22">
-        <v>2014</v>
+      <c r="A7" s="21">
+        <v>2013</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22">
-        <v>2013</v>
+      <c r="A8" s="21">
+        <v>2012</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22">
-        <v>2012</v>
+      <c r="A9" s="21">
+        <v>2011</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22">
-        <v>2011</v>
+      <c r="A10" s="21">
+        <v>2010</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22">
-        <v>2010</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="22">
+      <c r="A11" s="21">
         <v>2009</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1815,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1826,16 +1775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="13">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
@@ -1843,7 +1792,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -1851,97 +1800,89 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
         <v>2006</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1951,12 +1892,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2177,15 +2115,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2210,10 +2152,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/BppTrend/Error_Record_Files/BOE Valuation Factors 2020.xlsx
+++ b/data/BppTrend/Error_Record_Files/BOE Valuation Factors 2020.xlsx
@@ -326,14 +326,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -879,7 +879,7 @@
       <c r="B2" s="23">
         <v>61</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="12"/>
@@ -891,7 +891,7 @@
       <c r="B3" s="23">
         <v>46</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="12"/>
@@ -1387,30 +1387,30 @@
     </row>
     <row r="22" spans="1:9" ht="15.5">
       <c r="A22" s="7"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="8"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="14">
       <c r="A24" s="8"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="14">
       <c r="A25" s="9"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="14">
@@ -1892,9 +1892,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2115,19 +2118,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2152,9 +2151,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>